--- a/natmiOut/OldD7/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.90235139156522</v>
+        <v>8.204228666666666</v>
       </c>
       <c r="H2">
-        <v>5.90235139156522</v>
+        <v>24.612686</v>
       </c>
       <c r="I2">
-        <v>0.05714684861052122</v>
+        <v>0.07326752815431403</v>
       </c>
       <c r="J2">
-        <v>0.05714684861052122</v>
+        <v>0.07326752815431405</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>836.1847012751706</v>
+        <v>1259.587165171297</v>
       </c>
       <c r="R2">
-        <v>836.1847012751706</v>
+        <v>11336.28448654167</v>
       </c>
       <c r="S2">
-        <v>0.01790894740878926</v>
+        <v>0.02324197633992198</v>
       </c>
       <c r="T2">
-        <v>0.01790894740878926</v>
+        <v>0.02324197633992199</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.90235139156522</v>
+        <v>8.204228666666666</v>
       </c>
       <c r="H3">
-        <v>5.90235139156522</v>
+        <v>24.612686</v>
       </c>
       <c r="I3">
-        <v>0.05714684861052122</v>
+        <v>0.07326752815431403</v>
       </c>
       <c r="J3">
-        <v>0.05714684861052122</v>
+        <v>0.07326752815431405</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>995.2433465777422</v>
+        <v>1384.871359542676</v>
       </c>
       <c r="R3">
-        <v>995.2433465777422</v>
+        <v>12463.84223588409</v>
       </c>
       <c r="S3">
-        <v>0.02131557863427447</v>
+        <v>0.02555372765167007</v>
       </c>
       <c r="T3">
-        <v>0.02131557863427447</v>
+        <v>0.02555372765167007</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.90235139156522</v>
+        <v>8.204228666666666</v>
       </c>
       <c r="H4">
-        <v>5.90235139156522</v>
+        <v>24.612686</v>
       </c>
       <c r="I4">
-        <v>0.05714684861052122</v>
+        <v>0.07326752815431403</v>
       </c>
       <c r="J4">
-        <v>0.05714684861052122</v>
+        <v>0.07326752815431405</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>363.5470348974335</v>
+        <v>558.6285826139355</v>
       </c>
       <c r="R4">
-        <v>363.5470348974335</v>
+        <v>5027.657243525419</v>
       </c>
       <c r="S4">
-        <v>0.00778625191141456</v>
+        <v>0.01030784741137906</v>
       </c>
       <c r="T4">
-        <v>0.00778625191141456</v>
+        <v>0.01030784741137907</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.90235139156522</v>
+        <v>8.204228666666666</v>
       </c>
       <c r="H5">
-        <v>5.90235139156522</v>
+        <v>24.612686</v>
       </c>
       <c r="I5">
-        <v>0.05714684861052122</v>
+        <v>0.07326752815431403</v>
       </c>
       <c r="J5">
-        <v>0.05714684861052122</v>
+        <v>0.07326752815431405</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>473.2621644456703</v>
+        <v>767.6095639565592</v>
       </c>
       <c r="R5">
-        <v>473.2621644456703</v>
+        <v>6908.486075609033</v>
       </c>
       <c r="S5">
-        <v>0.01013607065604293</v>
+        <v>0.01416397675134292</v>
       </c>
       <c r="T5">
-        <v>0.01013607065604293</v>
+        <v>0.01416397675134292</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>79.9287724728803</v>
+        <v>81.515531</v>
       </c>
       <c r="H6">
-        <v>79.9287724728803</v>
+        <v>244.546593</v>
       </c>
       <c r="I6">
-        <v>0.7738741998078843</v>
+        <v>0.7279711116319884</v>
       </c>
       <c r="J6">
-        <v>0.7738741998078843</v>
+        <v>0.7279711116319885</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>11323.48996182058</v>
+        <v>12514.99937183487</v>
       </c>
       <c r="R6">
-        <v>11323.48996182058</v>
+        <v>112634.9943465138</v>
       </c>
       <c r="S6">
-        <v>0.2425203258334469</v>
+        <v>0.2309275033417536</v>
       </c>
       <c r="T6">
-        <v>0.2425203258334469</v>
+        <v>0.2309275033417536</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>79.9287724728803</v>
+        <v>81.515531</v>
       </c>
       <c r="H7">
-        <v>79.9287724728803</v>
+        <v>244.546593</v>
       </c>
       <c r="I7">
-        <v>0.7738741998078843</v>
+        <v>0.7279711116319884</v>
       </c>
       <c r="J7">
-        <v>0.7738741998078843</v>
+        <v>0.7279711116319885</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>13477.43868950933</v>
+        <v>13759.79739551545</v>
       </c>
       <c r="R7">
-        <v>13477.43868950933</v>
+        <v>123838.1765596391</v>
       </c>
       <c r="S7">
-        <v>0.2886524237139511</v>
+        <v>0.2538965895744092</v>
       </c>
       <c r="T7">
-        <v>0.2886524237139511</v>
+        <v>0.2538965895744092</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>79.9287724728803</v>
+        <v>81.515531</v>
       </c>
       <c r="H8">
-        <v>79.9287724728803</v>
+        <v>244.546593</v>
       </c>
       <c r="I8">
-        <v>0.7738741998078843</v>
+        <v>0.7279711116319884</v>
       </c>
       <c r="J8">
-        <v>0.7738741998078843</v>
+        <v>0.7279711116319885</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>4923.100355738309</v>
+        <v>5550.418862478356</v>
       </c>
       <c r="R8">
-        <v>4923.100355738309</v>
+        <v>49953.76976230521</v>
       </c>
       <c r="S8">
-        <v>0.1054402756049647</v>
+        <v>0.102416654794061</v>
       </c>
       <c r="T8">
-        <v>0.1054402756049647</v>
+        <v>0.1024166547940611</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>79.9287724728803</v>
+        <v>81.515531</v>
       </c>
       <c r="H9">
-        <v>79.9287724728803</v>
+        <v>244.546593</v>
       </c>
       <c r="I9">
-        <v>0.7738741998078843</v>
+        <v>0.7279711116319884</v>
       </c>
       <c r="J9">
-        <v>0.7738741998078843</v>
+        <v>0.7279711116319885</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>6408.846466860318</v>
+        <v>7626.810971374363</v>
       </c>
       <c r="R9">
-        <v>6408.846466860318</v>
+        <v>68641.29874236927</v>
       </c>
       <c r="S9">
-        <v>0.1372611746555215</v>
+        <v>0.1407303639217646</v>
       </c>
       <c r="T9">
-        <v>0.1372611746555215</v>
+        <v>0.1407303639217646</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.99254550912339</v>
+        <v>2.363806</v>
       </c>
       <c r="H10">
-        <v>1.99254550912339</v>
+        <v>7.091418</v>
       </c>
       <c r="I10">
-        <v>0.01929192096596814</v>
+        <v>0.02110987268797113</v>
       </c>
       <c r="J10">
-        <v>0.01929192096596814</v>
+        <v>0.02110987268797113</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>282.2834427825702</v>
+        <v>362.9128123466373</v>
       </c>
       <c r="R10">
-        <v>282.2834427825702</v>
+        <v>3266.215311119736</v>
       </c>
       <c r="S10">
-        <v>0.006045792662142234</v>
+        <v>0.00669648852516531</v>
       </c>
       <c r="T10">
-        <v>0.006045792662142234</v>
+        <v>0.006696488525165313</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.99254550912339</v>
+        <v>2.363806</v>
       </c>
       <c r="H11">
-        <v>1.99254550912339</v>
+        <v>7.091418</v>
       </c>
       <c r="I11">
-        <v>0.01929192096596814</v>
+        <v>0.02110987268797113</v>
       </c>
       <c r="J11">
-        <v>0.01929192096596814</v>
+        <v>0.02110987268797113</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>335.979261340205</v>
+        <v>399.0097499616827</v>
       </c>
       <c r="R11">
-        <v>335.979261340205</v>
+        <v>3591.087749655144</v>
       </c>
       <c r="S11">
-        <v>0.007195820388258354</v>
+        <v>0.007362551337799982</v>
       </c>
       <c r="T11">
-        <v>0.007195820388258354</v>
+        <v>0.007362551337799983</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.99254550912339</v>
+        <v>2.363806</v>
       </c>
       <c r="H12">
-        <v>1.99254550912339</v>
+        <v>7.091418</v>
       </c>
       <c r="I12">
-        <v>0.01929192096596814</v>
+        <v>0.02110987268797113</v>
       </c>
       <c r="J12">
-        <v>0.01929192096596814</v>
+        <v>0.02110987268797113</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>122.728038993949</v>
+        <v>160.9523148372733</v>
       </c>
       <c r="R12">
-        <v>122.728038993949</v>
+        <v>1448.57083353546</v>
       </c>
       <c r="S12">
-        <v>0.002628522134612911</v>
+        <v>0.002969901565164684</v>
       </c>
       <c r="T12">
-        <v>0.002628522134612911</v>
+        <v>0.002969901565164685</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.99254550912339</v>
+        <v>2.363806</v>
       </c>
       <c r="H13">
-        <v>1.99254550912339</v>
+        <v>7.091418</v>
       </c>
       <c r="I13">
-        <v>0.01929192096596814</v>
+        <v>0.02110987268797113</v>
       </c>
       <c r="J13">
-        <v>0.01929192096596814</v>
+        <v>0.02110987268797113</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N13">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q13">
-        <v>159.7662249915904</v>
+        <v>221.164007813438</v>
       </c>
       <c r="R13">
-        <v>159.7662249915904</v>
+        <v>1990.476070320942</v>
       </c>
       <c r="S13">
-        <v>0.003421785780954644</v>
+        <v>0.004080931259841154</v>
       </c>
       <c r="T13">
-        <v>0.003421785780954644</v>
+        <v>0.004080931259841154</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.460265525311</v>
+        <v>19.892761</v>
       </c>
       <c r="H14">
-        <v>15.460265525311</v>
+        <v>59.67828300000001</v>
       </c>
       <c r="I14">
-        <v>0.1496870306156264</v>
+        <v>0.1776514875257265</v>
       </c>
       <c r="J14">
-        <v>0.1496870306156264</v>
+        <v>0.1776514875257265</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N14">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O14">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P14">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q14">
-        <v>2190.252096544318</v>
+        <v>3054.116048376858</v>
       </c>
       <c r="R14">
-        <v>2190.252096544318</v>
+        <v>27487.04443539172</v>
       </c>
       <c r="S14">
-        <v>0.04690962361447756</v>
+        <v>0.05635472867500804</v>
       </c>
       <c r="T14">
-        <v>0.04690962361447756</v>
+        <v>0.05635472867500804</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.460265525311</v>
+        <v>19.892761</v>
       </c>
       <c r="H15">
-        <v>15.460265525311</v>
+        <v>59.67828300000001</v>
       </c>
       <c r="I15">
-        <v>0.1496870306156264</v>
+        <v>0.1776514875257265</v>
       </c>
       <c r="J15">
-        <v>0.1496870306156264</v>
+        <v>0.1776514875257265</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N15">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q15">
-        <v>2606.88078015475</v>
+        <v>3357.892142019064</v>
       </c>
       <c r="R15">
-        <v>2606.88078015475</v>
+        <v>30221.02927817157</v>
       </c>
       <c r="S15">
-        <v>0.05583274929758777</v>
+        <v>0.06196002299388585</v>
       </c>
       <c r="T15">
-        <v>0.05583274929758777</v>
+        <v>0.06196002299388585</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.460265525311</v>
+        <v>19.892761</v>
       </c>
       <c r="H16">
-        <v>15.460265525311</v>
+        <v>59.67828300000001</v>
       </c>
       <c r="I16">
-        <v>0.1496870306156264</v>
+        <v>0.1776514875257265</v>
       </c>
       <c r="J16">
-        <v>0.1496870306156264</v>
+        <v>0.1776514875257265</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N16">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q16">
-        <v>952.2533169553195</v>
+        <v>1354.504528482724</v>
       </c>
       <c r="R16">
-        <v>952.2533169553195</v>
+        <v>12190.54075634451</v>
       </c>
       <c r="S16">
-        <v>0.02039484165064374</v>
+        <v>0.02499339710168558</v>
       </c>
       <c r="T16">
-        <v>0.02039484165064374</v>
+        <v>0.02499339710168559</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.460265525311</v>
+        <v>19.892761</v>
       </c>
       <c r="H17">
-        <v>15.460265525311</v>
+        <v>59.67828300000001</v>
       </c>
       <c r="I17">
-        <v>0.1496870306156264</v>
+        <v>0.1776514875257265</v>
       </c>
       <c r="J17">
-        <v>0.1496870306156264</v>
+        <v>0.1776514875257265</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N17">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q17">
-        <v>1239.634552403896</v>
+        <v>1861.219892510153</v>
       </c>
       <c r="R17">
-        <v>1239.634552403896</v>
+        <v>16750.97903259138</v>
       </c>
       <c r="S17">
-        <v>0.0265498160529173</v>
+        <v>0.03434333875514699</v>
       </c>
       <c r="T17">
-        <v>0.0265498160529173</v>
+        <v>0.03434333875514699</v>
       </c>
     </row>
   </sheetData>
